--- a/biology/Botanique/Allium_akaka/Allium_akaka.xlsx
+++ b/biology/Botanique/Allium_akaka/Allium_akaka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium akaka est une espèce d'oignon de la famille des Amaryllidacées originaire du Nord et du Nord oust de l'Iran[1],[2],[3],[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium akaka est une espèce d'oignon de la famille des Amaryllidacées originaire du Nord et du Nord oust de l'Iran.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plusieurs noms infraspécifiques ont été inventés faisant référence à des taxons désormais généralement considérés comme des espèces distinctes à ne pas inclure dans  Allium akaka [2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plusieurs noms infraspécifiques ont été inventés faisant référence à des taxons désormais généralement considérés comme des espèces distinctes à ne pas inclure dans  Allium akaka :
 Allium akaka subsp. akaka.
 Allium akaka subsp. haemanthoides (Boiss. &amp; Reut. ex Regel) Wendelbo, maintenant synonyme de Allium haemanthoides Boiss. &amp; Reut. ex Regel (1973).
 Allium akaka f. major Turrill, désormais synonyme de Allium ubipetrense R.M.Fritsch (1938).
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium akaka est une plantes à bulbe à feuilles caduques. Les feuilles sont gris-vertes, simples et basales. Elles sont linéaires à bord entier et à nervures parallèles. Elle présente des fleurs à six pétales de couleur rose-violette pâle qui s'organisent en ombelle. Les plantes forment des capsules de déhiscence loculicide. 
 Elle n'est pas sensible au gel. Elle fleurit de juillet à août. L'espèce est hermaphrodite.
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium akaka provient de Turquie, du Caucase, du nord-ouest de l'Iran et de l'Irak.
 </t>
@@ -610,7 +628,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes préfèrent un emplacement ensoleillé sur des sols secs à frais. Le substrat doit être limono-sableux, limono-graveleux ou argilo-sableux. Les plantes supportent des températures jusqu'à −12 °C.
 </t>
@@ -641,9 +661,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles sont consommées en Iran[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont consommées en Iran.
 </t>
         </is>
       </c>
